--- a/data/maestro/empleados.xlsx
+++ b/data/maestro/empleados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\CHVS\huellero_processor\data\maestro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C59C171-72C2-4BC9-B68E-19C7AE7A3288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC3B59C-2733-4A97-B5A3-ABE5F74178F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{629783C7-5990-495F-BDAA-9848A0358E90}"/>
   </bookViews>
@@ -16,7 +16,12 @@
     <sheet name="empleados_ejemplo" sheetId="1" r:id="rId1"/>
     <sheet name="conceptos" sheetId="4" r:id="rId2"/>
     <sheet name="horas_cargos" sheetId="3" r:id="rId3"/>
+    <sheet name="horarios" sheetId="7" r:id="rId4"/>
+    <sheet name="cargos_horarios" sheetId="6" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">empleados_ejemplo!$A$1:$D$89</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="224">
   <si>
     <t>CODIGO</t>
   </si>
@@ -698,13 +703,22 @@
   </si>
   <si>
     <t>horas_dia</t>
+  </si>
+  <si>
+    <t>id_horario</t>
+  </si>
+  <si>
+    <t>hora_inicio</t>
+  </si>
+  <si>
+    <t>hora_fin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -870,6 +884,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="49">
@@ -1149,7 +1169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1357,6 +1377,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1402,7 +1437,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1472,6 +1507,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="48" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1850,7 +1897,7 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E89"/>
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -3105,6 +3152,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D89" xr:uid="{ED55EB75-B2C6-4000-B88B-6928A8ABCB8D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4109,7 +4157,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -4547,4 +4595,848 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C170F994-484F-413D-9189-F6AE2A0CECB0}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1">
+      <c r="A1" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="C2" s="35">
+        <v>0.65833333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1">
+      <c r="A3" s="34">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C3" s="35">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1">
+      <c r="A4" s="34">
+        <v>3</v>
+      </c>
+      <c r="B4" s="35">
+        <v>0.125</v>
+      </c>
+      <c r="C4" s="35">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1">
+      <c r="A5" s="34">
+        <v>4</v>
+      </c>
+      <c r="B5" s="35">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C5" s="35">
+        <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1">
+      <c r="A6" s="34">
+        <v>5</v>
+      </c>
+      <c r="B6" s="35">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C6" s="35">
+        <v>0.6166666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1">
+      <c r="A7" s="34">
+        <v>6</v>
+      </c>
+      <c r="B7" s="35">
+        <v>0.875</v>
+      </c>
+      <c r="C7" s="35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1">
+      <c r="A8" s="34">
+        <v>7</v>
+      </c>
+      <c r="B8" s="35">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C8" s="35">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1">
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1">
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1">
+      <c r="A12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1">
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1">
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB25B17A-F34A-4AB4-8BDC-0C51E1762DFD}">
+  <dimension ref="A1:B87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1">
+      <c r="A1" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1">
+      <c r="A2" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1">
+      <c r="A3" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1">
+      <c r="A4" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1">
+      <c r="A5" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1">
+      <c r="A6" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1">
+      <c r="A7" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1">
+      <c r="A8" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1">
+      <c r="A9" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1">
+      <c r="A10" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1">
+      <c r="A11" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1">
+      <c r="A12" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1">
+      <c r="A13" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1">
+      <c r="A14" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1">
+      <c r="A15" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1">
+      <c r="A16" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1">
+      <c r="A17" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1">
+      <c r="A18" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1">
+      <c r="A19" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1">
+      <c r="A20" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1">
+      <c r="A21" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1">
+      <c r="A22" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" thickBot="1">
+      <c r="A23" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" thickBot="1">
+      <c r="A24" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1">
+      <c r="A25" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" thickBot="1">
+      <c r="A26" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" thickBot="1">
+      <c r="A27" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickBot="1">
+      <c r="A28" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" thickBot="1">
+      <c r="A29" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" thickBot="1">
+      <c r="A30" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" thickBot="1">
+      <c r="A31" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" thickBot="1">
+      <c r="A32" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" thickBot="1">
+      <c r="A33" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" thickBot="1">
+      <c r="A34" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" thickBot="1">
+      <c r="A35" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" thickBot="1">
+      <c r="A36" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickBot="1">
+      <c r="A37" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" thickBot="1">
+      <c r="A38" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" thickBot="1">
+      <c r="A39" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" thickBot="1">
+      <c r="A40" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" thickBot="1">
+      <c r="A41" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" thickBot="1">
+      <c r="A42" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" thickBot="1">
+      <c r="A43" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" thickBot="1">
+      <c r="A44" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" thickBot="1">
+      <c r="A45" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" thickBot="1">
+      <c r="A46" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" thickBot="1">
+      <c r="A47" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" thickBot="1">
+      <c r="A48" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" thickBot="1">
+      <c r="A49" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B49" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" thickBot="1">
+      <c r="A50" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" thickBot="1">
+      <c r="A51" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" thickBot="1">
+      <c r="A52" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" thickBot="1">
+      <c r="A53" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" thickBot="1">
+      <c r="A54" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15" thickBot="1">
+      <c r="A55" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15" thickBot="1">
+      <c r="A56" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" thickBot="1">
+      <c r="A57" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15" thickBot="1">
+      <c r="A58" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15" thickBot="1">
+      <c r="A59" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" thickBot="1">
+      <c r="A60" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15" thickBot="1">
+      <c r="A61" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" thickBot="1">
+      <c r="A62" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15" thickBot="1">
+      <c r="A63" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" thickBot="1">
+      <c r="A64" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" thickBot="1">
+      <c r="A65" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" thickBot="1">
+      <c r="A66" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15" thickBot="1">
+      <c r="A67" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15" thickBot="1">
+      <c r="A68" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" thickBot="1">
+      <c r="A69" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" thickBot="1">
+      <c r="A70" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" thickBot="1">
+      <c r="A71" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15" thickBot="1">
+      <c r="A72" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" thickBot="1">
+      <c r="A73" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" thickBot="1">
+      <c r="A74" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15" thickBot="1">
+      <c r="A75" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15" thickBot="1">
+      <c r="A76" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15" thickBot="1">
+      <c r="A77" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15" thickBot="1">
+      <c r="A78" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15" thickBot="1">
+      <c r="A79" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B79" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15" thickBot="1">
+      <c r="A80" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B80" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15" thickBot="1">
+      <c r="A81" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B81" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15" thickBot="1">
+      <c r="A82" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B82" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15" thickBot="1">
+      <c r="A83" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B83" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15" thickBot="1">
+      <c r="A84" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B84" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15" thickBot="1">
+      <c r="A85" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B85" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15" thickBot="1">
+      <c r="A86" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15" thickBot="1">
+      <c r="A87" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B87" s="34">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>